--- a/TestData/Login.xlsx
+++ b/TestData/Login.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C664F845-5FCA-404B-8FFB-59BD2F009057}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696"/>
   </bookViews>
   <sheets>
     <sheet name="Logintest" sheetId="1" r:id="rId1"/>
@@ -29,16 +28,16 @@
     <t>Y</t>
   </si>
   <si>
-    <t>agoyal</t>
-  </si>
-  <si>
     <t>Test@123</t>
+  </si>
+  <si>
+    <t>ashishTest120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,23 +173,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -226,23 +208,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,11 +383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,10 +409,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
